--- a/진행상황.xlsx
+++ b/진행상황.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>페이스북 로그인 로그아웃</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>싱글 플레이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>배경음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,23 +106,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>영,성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영,성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱글 플레이_맵수 유동적으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영준(1월26일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성진(1월26일)-&gt;업적보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성진(1월27일~)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱글 스테이지 개수 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영준(1월27일~)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,26 +473,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:G20"/>
+  <dimension ref="D4:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>1</v>
       </c>
@@ -484,7 +506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>2</v>
       </c>
@@ -492,7 +514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>3</v>
       </c>
@@ -500,85 +522,94 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="G12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E15" t="s">
+    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
-        <v>15</v>
+      <c r="G16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
         <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/진행상황.xlsx
+++ b/진행상황.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12315"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
   <dimension ref="D4:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
